--- a/biology/Histoire de la zoologie et de la botanique/Austin_Roberts/Austin_Roberts.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Austin_Roberts/Austin_Roberts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">J. Austin Roberts, né le 3 janvier 1883 à Pretoria et mort le 5 mai 1948 dans un accident de voiture, est un zoologiste, sud-africain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de l'artiste et naturaliste Marianne Edwardine Fannin (dite Edda), de laquelle il hérite de l'intérêt pour l'étude de la nature. Il vit à Lydenburg jusqu'en 1891, lorsque sa famille déménage à Potchefstroom où il retrouve le naturaliste Thomas Ayres qui lui fait connaître l'ornithologie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de l'artiste et naturaliste Marianne Edwardine Fannin (dite Edda), de laquelle il hérite de l'intérêt pour l'étude de la nature. Il vit à Lydenburg jusqu'en 1891, lorsque sa famille déménage à Potchefstroom où il retrouve le naturaliste Thomas Ayres qui lui fait connaître l'ornithologie.
 Durant trente-huit ans, Austin Roberts travaille pour le Transvaal Museum et étudie les oiseaux de l’Afrique du Sud.
-Il est cofondateur de l'Union d'ornithologues sud-africains (South African Ornithologists Union, en 1904) et de la Société biologique du Transvaal (Transvaal Biological Society). Quand les deux sociétés se regroupent, en 1916, il devient cofondateur de la Société biologique sud-africaine (South African Biological Society) pour laquelle il sera élu président, en 1933[1].
+Il est cofondateur de l'Union d'ornithologues sud-africains (South African Ornithologists Union, en 1904) et de la Société biologique du Transvaal (Transvaal Biological Society). Quand les deux sociétés se regroupent, en 1916, il devient cofondateur de la Société biologique sud-africaine (South African Biological Society) pour laquelle il sera élu président, en 1933.
 Il fait paraître The Birds of South Africa en 1940 (qui connaît de très nombreuses rééditions) et The Mammals of South Africa en 1951.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Ouvrages et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Roberts, A., « IV. — Description of a New Flycatcher », The Journal of the South African Ornithologists' Union, vol. 8,‎ 1912, p. 21
 (en) Roberts, A., « Descriptions of some new mammals [and] Some notes on birds and descriptions of new sub-species », Annals of the Transvaal Museum, vol. 6,‎ avril 1919
